--- a/biology/Zoologie/Cypselurus/Cypselurus.xlsx
+++ b/biology/Zoologie/Cypselurus/Cypselurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypselurus est un genre de poissons volants de la famille des Exocoetidae .
 </t>
@@ -511,9 +523,11 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il existe actuellement douze espèces reconnues dans ce genre[3]: 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il existe actuellement douze espèces reconnues dans ce genre: 
 Cypselurus angusticeps ( Nichols &amp; Breder , 1935) - Poisson volant à tête étroite
 Cypselurus callopterus ( Günther , 1866) - Poisson volant orné, poisson volant beautyfin
 Cypselurus comatus ( Mitchill , 1815) - Poisson-volant volant
@@ -553,9 +567,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (21 mars 2019)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 mars 2019) :
 Cypselurus angusticeps Nichols &amp; Breder, 1935
 Cypselurus callopterus (Günther, 1866)
 Cypselurus comatus (Mitchill, 1815)
@@ -567,7 +583,7 @@
 Cypselurus opisthopus (Bleeker, 1866)
 Cypselurus poecilopterus (Valenciennes, 1847)
 Cypselurus starksi Abe, 1953
-Selon ITIS      (21 mars 2019)[1] :
+Selon ITIS      (21 mars 2019) :
 Cypselurus angusticeps Nichols &amp; Breder, 1935
 Cypselurus callopterus (Günther, 1866)
 Cypselurus comatus (Mitchill, 1815)
@@ -580,7 +596,7 @@
 Cypselurus poecilopterus (Valenciennes in Cuvier &amp; Valenciennes, 1847)
 Cypselurus simus (Valenciennes in Cuvier &amp; Valenciennes, 1847)
 Cypselurus starksi Abe in Tomiyama &amp; Abe, 1953
-Selon World Register of Marine Species                               (21 mars 2019)[2] :
+Selon World Register of Marine Species                               (21 mars 2019) :
 Cypselurus angusticeps Nichols &amp; Breder, 1935
 Cypselurus callopterus (Günther, 1866)
 Cypselurus comatus (Mitchill, 1815)
